--- a/biology/Botanique/Silcher/Silcher.xlsx
+++ b/biology/Botanique/Silcher/Silcher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le silcher est un cépage de cuve allemand de raisins blancs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est une obtention de August Herold dans l'institut Staatliche Lehr- und Versuchsanstalt für Wein- und Obstbau Weinsberg  à Weinsberg près de Heilbronn. L'origine génétique est vérifiée : c'est un croisement des cépages kerner x sylvaner réalisé en 1951. Le cépage est autorisé dans de nombreux Länder en Allemagne. Le cépage est peu multiplié.
 Le nom du cépage a été choisi en hommage à Friedrich Silcher.
@@ -544,7 +558,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque hâtive : 8 - 10 jours après le chasselas.
 </t>
